--- a/ReportingTool/Template/RetailKPI1.xlsx
+++ b/ReportingTool/Template/RetailKPI1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="UAE" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">OMAN!$B$2:$AG$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">UAE!$B$2:$AG$57</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="136">
   <si>
     <t>WEEKLY POSITION</t>
   </si>
@@ -446,11 +446,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%;[Red]\-#,##0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1831,6 +1831,12 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1838,6 +1844,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1849,15 +1873,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1865,21 +1880,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2040,6 +2040,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2645,7 +2653,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2677,9 +2685,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2711,6 +2720,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2886,14 +2896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BO59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:AD3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
@@ -2958,8 +2968,8 @@
     <col min="69" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:65" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:65" ht="15.75" thickBot="1">
+    <row r="1" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2993,43 +3003,43 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="6"/>
     </row>
-    <row r="3" spans="2:65" ht="15.75" thickBot="1">
+    <row r="3" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233" t="s">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="237" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="234"/>
-      <c r="U3" s="234"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="234"/>
-      <c r="Y3" s="234"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="235"/>
+      <c r="Z3" s="235"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="235"/>
+      <c r="AC3" s="235"/>
+      <c r="AD3" s="236"/>
       <c r="AE3" s="86"/>
       <c r="AF3" s="86"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="2:65">
+    <row r="4" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3063,7 +3073,7 @@
       <c r="AF4" s="86"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="2:65" ht="15.75" thickBot="1">
+    <row r="5" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -3097,65 +3107,65 @@
       <c r="AF5" s="86"/>
       <c r="AG5" s="8"/>
     </row>
-    <row r="6" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="236" t="s">
+      <c r="E6" s="241" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="233" t="s">
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="234"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="233" t="s">
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="236"/>
+      <c r="N6" s="237" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="235"/>
+      <c r="P6" s="236"/>
+      <c r="Q6" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="235"/>
-      <c r="S6" s="233" t="s">
+      <c r="R6" s="236"/>
+      <c r="S6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="235"/>
-      <c r="U6" s="233" t="s">
+      <c r="T6" s="236"/>
+      <c r="U6" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="234"/>
-      <c r="W6" s="234"/>
-      <c r="X6" s="234"/>
-      <c r="Y6" s="234"/>
-      <c r="Z6" s="235"/>
-      <c r="AA6" s="233" t="s">
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="235"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="236"/>
+      <c r="AA6" s="237" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="234"/>
-      <c r="AC6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="236"/>
       <c r="AD6" s="11" t="s">
         <v>82</v>
       </c>
       <c r="AE6" s="86"/>
       <c r="AF6" s="86"/>
       <c r="AG6" s="8"/>
-      <c r="AP6" s="230" t="s">
+      <c r="AP6" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="AQ6" s="230"/>
-      <c r="AR6" s="230"/>
-      <c r="AS6" s="230"/>
+      <c r="AQ6" s="238"/>
+      <c r="AR6" s="238"/>
+      <c r="AS6" s="238"/>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
     </row>
-    <row r="7" spans="2:65" ht="67.900000000000006" customHeight="1" thickBot="1">
+    <row r="7" spans="2:65" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -3311,7 +3321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:65" ht="15.75" thickBot="1">
+    <row r="8" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="88" t="s">
         <v>45</v>
@@ -3492,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:65" ht="15.75" thickBot="1">
+    <row r="9" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="91" t="s">
         <v>49</v>
@@ -3673,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:65" ht="15.75" thickBot="1">
+    <row r="10" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="91" t="s">
         <v>51</v>
@@ -3854,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:65" ht="15.75" thickBot="1">
+    <row r="11" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="91" t="s">
         <v>54</v>
@@ -4035,12 +4045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:65" ht="15.75" thickBot="1">
+    <row r="12" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="239" t="s">
+      <c r="C12" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="240"/>
+      <c r="D12" s="228"/>
       <c r="E12" s="178"/>
       <c r="F12" s="46" t="str">
         <f t="shared" si="20"/>
@@ -4154,12 +4164,12 @@
       <c r="BK12" s="120"/>
       <c r="BL12" s="120"/>
     </row>
-    <row r="13" spans="2:65" ht="15.75" thickBot="1">
+    <row r="13" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="239" t="s">
+      <c r="C13" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="240"/>
+      <c r="D13" s="228"/>
       <c r="E13" s="178">
         <f>SUM(E8:E11)</f>
         <v>0</v>
@@ -4340,36 +4350,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:65" ht="15.75" thickBot="1">
+    <row r="14" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="242"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="242"/>
-      <c r="H14" s="242"/>
-      <c r="I14" s="242"/>
-      <c r="J14" s="242"/>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
-      <c r="M14" s="242"/>
-      <c r="N14" s="242"/>
-      <c r="O14" s="242"/>
-      <c r="P14" s="242"/>
-      <c r="Q14" s="242"/>
-      <c r="R14" s="242"/>
-      <c r="S14" s="242"/>
-      <c r="T14" s="242"/>
-      <c r="U14" s="242"/>
-      <c r="V14" s="242"/>
-      <c r="W14" s="242"/>
-      <c r="X14" s="242"/>
-      <c r="Y14" s="242"/>
-      <c r="Z14" s="242"/>
-      <c r="AA14" s="242"/>
-      <c r="AB14" s="242"/>
-      <c r="AC14" s="242"/>
-      <c r="AD14" s="243"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="233"/>
+      <c r="G14" s="233"/>
+      <c r="H14" s="233"/>
+      <c r="I14" s="233"/>
+      <c r="J14" s="233"/>
+      <c r="K14" s="233"/>
+      <c r="L14" s="233"/>
+      <c r="M14" s="233"/>
+      <c r="N14" s="233"/>
+      <c r="O14" s="233"/>
+      <c r="P14" s="233"/>
+      <c r="Q14" s="233"/>
+      <c r="R14" s="233"/>
+      <c r="S14" s="233"/>
+      <c r="T14" s="233"/>
+      <c r="U14" s="233"/>
+      <c r="V14" s="233"/>
+      <c r="W14" s="233"/>
+      <c r="X14" s="233"/>
+      <c r="Y14" s="233"/>
+      <c r="Z14" s="233"/>
+      <c r="AA14" s="233"/>
+      <c r="AB14" s="233"/>
+      <c r="AC14" s="233"/>
+      <c r="AD14" s="234"/>
       <c r="AE14" s="86"/>
       <c r="AF14" s="86"/>
       <c r="AG14" s="8"/>
@@ -4389,7 +4399,7 @@
       <c r="BK14" s="120"/>
       <c r="BL14" s="120"/>
     </row>
-    <row r="15" spans="2:65" ht="15.75" thickBot="1">
+    <row r="15" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="172" t="s">
         <v>46</v>
@@ -4570,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:65" ht="15.75" thickBot="1">
+    <row r="16" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="91" t="s">
         <v>48</v>
@@ -4760,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:65" ht="15.75" thickBot="1">
+    <row r="17" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="167" t="s">
         <v>53</v>
@@ -4950,12 +4960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:65" ht="15.75" thickBot="1">
+    <row r="18" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="239" t="s">
+      <c r="C18" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="240"/>
+      <c r="D18" s="228"/>
       <c r="E18" s="178"/>
       <c r="F18" s="46" t="str">
         <f t="shared" si="20"/>
@@ -5069,12 +5079,12 @@
       <c r="BK18" s="120"/>
       <c r="BL18" s="120"/>
     </row>
-    <row r="19" spans="2:65" ht="15.75" thickBot="1">
+    <row r="19" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="239" t="s">
+      <c r="C19" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="240"/>
+      <c r="D19" s="228"/>
       <c r="E19" s="178">
         <f>SUM(E15:E17)</f>
         <v>0</v>
@@ -5255,36 +5265,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:65" ht="15.75" thickBot="1">
+    <row r="20" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="242"/>
-      <c r="H20" s="242"/>
-      <c r="I20" s="242"/>
-      <c r="J20" s="242"/>
-      <c r="K20" s="242"/>
-      <c r="L20" s="242"/>
-      <c r="M20" s="242"/>
-      <c r="N20" s="242"/>
-      <c r="O20" s="242"/>
-      <c r="P20" s="242"/>
-      <c r="Q20" s="242"/>
-      <c r="R20" s="242"/>
-      <c r="S20" s="242"/>
-      <c r="T20" s="242"/>
-      <c r="U20" s="242"/>
-      <c r="V20" s="242"/>
-      <c r="W20" s="242"/>
-      <c r="X20" s="242"/>
-      <c r="Y20" s="242"/>
-      <c r="Z20" s="242"/>
-      <c r="AA20" s="242"/>
-      <c r="AB20" s="242"/>
-      <c r="AC20" s="242"/>
-      <c r="AD20" s="243"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="233"/>
+      <c r="L20" s="233"/>
+      <c r="M20" s="233"/>
+      <c r="N20" s="233"/>
+      <c r="O20" s="233"/>
+      <c r="P20" s="233"/>
+      <c r="Q20" s="233"/>
+      <c r="R20" s="233"/>
+      <c r="S20" s="233"/>
+      <c r="T20" s="233"/>
+      <c r="U20" s="233"/>
+      <c r="V20" s="233"/>
+      <c r="W20" s="233"/>
+      <c r="X20" s="233"/>
+      <c r="Y20" s="233"/>
+      <c r="Z20" s="233"/>
+      <c r="AA20" s="233"/>
+      <c r="AB20" s="233"/>
+      <c r="AC20" s="233"/>
+      <c r="AD20" s="234"/>
       <c r="AE20" s="86"/>
       <c r="AF20" s="86"/>
       <c r="AG20" s="8"/>
@@ -5304,7 +5314,7 @@
       <c r="BK20" s="120"/>
       <c r="BL20" s="120"/>
     </row>
-    <row r="21" spans="2:65" ht="15.75" thickBot="1">
+    <row r="21" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="91" t="s">
         <v>47</v>
@@ -5494,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:65" ht="15.75" thickBot="1">
+    <row r="22" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="91" t="s">
         <v>50</v>
@@ -5684,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:65" ht="15.75" thickBot="1">
+    <row r="23" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="91" t="s">
         <v>52</v>
@@ -5874,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:65" ht="15.75" thickBot="1">
+    <row r="24" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="91" t="s">
         <v>55</v>
@@ -6064,14 +6074,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:65" ht="15.75" thickBot="1">
+    <row r="25" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
-      <c r="C25" s="167" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="168" t="s">
-        <v>124</v>
-      </c>
+      <c r="C25" s="167"/>
+      <c r="D25" s="168"/>
       <c r="E25" s="179">
         <v>0</v>
       </c>
@@ -6254,12 +6260,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:65" ht="15.75" thickBot="1">
+    <row r="26" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="C26" s="239" t="s">
+      <c r="C26" s="227" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="240"/>
+      <c r="D26" s="228"/>
       <c r="E26" s="179"/>
       <c r="F26" s="46" t="str">
         <f t="shared" si="20"/>
@@ -6373,12 +6379,12 @@
       <c r="BK26" s="120"/>
       <c r="BL26" s="120"/>
     </row>
-    <row r="27" spans="2:65" ht="15.75" thickBot="1">
+    <row r="27" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="239" t="s">
+      <c r="C27" s="227" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="240"/>
+      <c r="D27" s="228"/>
       <c r="E27" s="179">
         <f>SUM(E21:E25)</f>
         <v>0</v>
@@ -6548,36 +6554,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:65" ht="15.75" thickBot="1">
+    <row r="28" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="228"/>
-      <c r="E28" s="228"/>
-      <c r="F28" s="228"/>
-      <c r="G28" s="228"/>
-      <c r="H28" s="228"/>
-      <c r="I28" s="228"/>
-      <c r="J28" s="228"/>
-      <c r="K28" s="228"/>
-      <c r="L28" s="228"/>
-      <c r="M28" s="228"/>
-      <c r="N28" s="228"/>
-      <c r="O28" s="228"/>
-      <c r="P28" s="228"/>
-      <c r="Q28" s="228"/>
-      <c r="R28" s="228"/>
-      <c r="S28" s="228"/>
-      <c r="T28" s="228"/>
-      <c r="U28" s="228"/>
-      <c r="V28" s="228"/>
-      <c r="W28" s="228"/>
-      <c r="X28" s="228"/>
-      <c r="Y28" s="228"/>
-      <c r="Z28" s="228"/>
-      <c r="AA28" s="228"/>
-      <c r="AB28" s="228"/>
-      <c r="AC28" s="228"/>
-      <c r="AD28" s="229"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="230"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="230"/>
+      <c r="K28" s="230"/>
+      <c r="L28" s="230"/>
+      <c r="M28" s="230"/>
+      <c r="N28" s="230"/>
+      <c r="O28" s="230"/>
+      <c r="P28" s="230"/>
+      <c r="Q28" s="230"/>
+      <c r="R28" s="230"/>
+      <c r="S28" s="230"/>
+      <c r="T28" s="230"/>
+      <c r="U28" s="230"/>
+      <c r="V28" s="230"/>
+      <c r="W28" s="230"/>
+      <c r="X28" s="230"/>
+      <c r="Y28" s="230"/>
+      <c r="Z28" s="230"/>
+      <c r="AA28" s="230"/>
+      <c r="AB28" s="230"/>
+      <c r="AC28" s="230"/>
+      <c r="AD28" s="231"/>
       <c r="AE28" s="86"/>
       <c r="AF28" s="86"/>
       <c r="AG28" s="8"/>
@@ -6597,7 +6603,7 @@
       <c r="BK28" s="120"/>
       <c r="BL28" s="120"/>
     </row>
-    <row r="29" spans="2:65" ht="14.45" customHeight="1">
+    <row r="29" spans="2:65" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="109" t="s">
         <v>66</v>
@@ -6755,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="30" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="107" t="s">
         <v>65</v>
@@ -6930,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:65" ht="15.75" thickBot="1">
+    <row r="31" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="86"/>
       <c r="D31" s="86"/>
@@ -6964,64 +6970,64 @@
       <c r="AF31" s="86"/>
       <c r="AG31" s="8"/>
     </row>
-    <row r="32" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="32" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="86"/>
       <c r="D32" s="86"/>
-      <c r="E32" s="233" t="s">
+      <c r="E32" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="234"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="235"/>
-      <c r="I32" s="234" t="s">
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="236"/>
+      <c r="I32" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="234"/>
-      <c r="K32" s="234"/>
-      <c r="L32" s="235"/>
-      <c r="M32" s="233" t="s">
+      <c r="J32" s="235"/>
+      <c r="K32" s="235"/>
+      <c r="L32" s="236"/>
+      <c r="M32" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="234"/>
-      <c r="O32" s="234"/>
-      <c r="P32" s="235"/>
-      <c r="Q32" s="233" t="s">
+      <c r="N32" s="235"/>
+      <c r="O32" s="235"/>
+      <c r="P32" s="236"/>
+      <c r="Q32" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="R32" s="234"/>
-      <c r="S32" s="234"/>
-      <c r="T32" s="235"/>
-      <c r="U32" s="233" t="s">
+      <c r="R32" s="235"/>
+      <c r="S32" s="235"/>
+      <c r="T32" s="236"/>
+      <c r="U32" s="237" t="s">
         <v>130</v>
       </c>
-      <c r="V32" s="234"/>
-      <c r="W32" s="234"/>
-      <c r="X32" s="235"/>
-      <c r="Y32" s="233" t="s">
+      <c r="V32" s="235"/>
+      <c r="W32" s="235"/>
+      <c r="X32" s="236"/>
+      <c r="Y32" s="237" t="s">
         <v>131</v>
       </c>
-      <c r="Z32" s="234"/>
-      <c r="AA32" s="234"/>
-      <c r="AB32" s="235"/>
-      <c r="AC32" s="233" t="s">
+      <c r="Z32" s="235"/>
+      <c r="AA32" s="235"/>
+      <c r="AB32" s="236"/>
+      <c r="AC32" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="AD32" s="234"/>
-      <c r="AE32" s="234"/>
-      <c r="AF32" s="235"/>
+      <c r="AD32" s="235"/>
+      <c r="AE32" s="235"/>
+      <c r="AF32" s="236"/>
       <c r="AG32" s="8"/>
-      <c r="AP32" s="230" t="s">
+      <c r="AP32" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="AQ32" s="230"/>
-      <c r="AR32" s="230"/>
-      <c r="AS32" s="230"/>
-      <c r="AT32" s="230"/>
-      <c r="AU32" s="230"/>
-      <c r="AV32" s="230"/>
+      <c r="AQ32" s="238"/>
+      <c r="AR32" s="238"/>
+      <c r="AS32" s="238"/>
+      <c r="AT32" s="238"/>
+      <c r="AU32" s="238"/>
+      <c r="AV32" s="238"/>
     </row>
-    <row r="33" spans="2:56" ht="73.5" thickBot="1">
+    <row r="33" spans="2:56" ht="73.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="86"/>
       <c r="D33" s="86"/>
@@ -7153,7 +7159,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="2:56">
+    <row r="34" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
       <c r="C34" s="88" t="s">
         <v>45</v>
@@ -7315,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:56">
+    <row r="35" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
       <c r="C35" s="91" t="s">
         <v>49</v>
@@ -7477,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:56">
+    <row r="36" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
       <c r="C36" s="91" t="s">
         <v>51</v>
@@ -7639,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:56">
+    <row r="37" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
       <c r="C37" s="91" t="s">
         <v>54</v>
@@ -7801,12 +7807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:56">
+    <row r="38" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
-      <c r="C38" s="239" t="s">
+      <c r="C38" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="240"/>
+      <c r="D38" s="228"/>
       <c r="E38" s="45"/>
       <c r="F38" s="47" t="str">
         <f t="shared" si="45"/>
@@ -7938,12 +7944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:56">
+    <row r="39" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
-      <c r="C39" s="239" t="s">
+      <c r="C39" s="227" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="240"/>
+      <c r="D39" s="228"/>
       <c r="E39" s="45">
         <f>SUM(E34:E37)</f>
         <v>0</v>
@@ -8117,38 +8123,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:56">
+    <row r="40" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
-      <c r="C40" s="241"/>
-      <c r="D40" s="242"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="242"/>
-      <c r="J40" s="242"/>
-      <c r="K40" s="242"/>
-      <c r="L40" s="242"/>
-      <c r="M40" s="242"/>
-      <c r="N40" s="242"/>
-      <c r="O40" s="242"/>
-      <c r="P40" s="242"/>
-      <c r="Q40" s="242"/>
-      <c r="R40" s="242"/>
-      <c r="S40" s="242"/>
-      <c r="T40" s="242"/>
-      <c r="U40" s="242"/>
-      <c r="V40" s="242"/>
-      <c r="W40" s="242"/>
-      <c r="X40" s="242"/>
-      <c r="Y40" s="242"/>
-      <c r="Z40" s="242"/>
-      <c r="AA40" s="242"/>
-      <c r="AB40" s="242"/>
-      <c r="AC40" s="242"/>
-      <c r="AD40" s="242"/>
-      <c r="AE40" s="242"/>
-      <c r="AF40" s="243"/>
+      <c r="C40" s="232"/>
+      <c r="D40" s="233"/>
+      <c r="E40" s="233"/>
+      <c r="F40" s="233"/>
+      <c r="G40" s="233"/>
+      <c r="H40" s="233"/>
+      <c r="I40" s="233"/>
+      <c r="J40" s="233"/>
+      <c r="K40" s="233"/>
+      <c r="L40" s="233"/>
+      <c r="M40" s="233"/>
+      <c r="N40" s="233"/>
+      <c r="O40" s="233"/>
+      <c r="P40" s="233"/>
+      <c r="Q40" s="233"/>
+      <c r="R40" s="233"/>
+      <c r="S40" s="233"/>
+      <c r="T40" s="233"/>
+      <c r="U40" s="233"/>
+      <c r="V40" s="233"/>
+      <c r="W40" s="233"/>
+      <c r="X40" s="233"/>
+      <c r="Y40" s="233"/>
+      <c r="Z40" s="233"/>
+      <c r="AA40" s="233"/>
+      <c r="AB40" s="233"/>
+      <c r="AC40" s="233"/>
+      <c r="AD40" s="233"/>
+      <c r="AE40" s="233"/>
+      <c r="AF40" s="234"/>
       <c r="AG40" s="8"/>
       <c r="AP40" s="43"/>
       <c r="AQ40" s="43"/>
@@ -8165,7 +8171,7 @@
       <c r="BC40" s="2"/>
       <c r="BD40" s="2"/>
     </row>
-    <row r="41" spans="2:56">
+    <row r="41" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="C41" s="172" t="s">
         <v>46</v>
@@ -8327,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:56">
+    <row r="42" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="C42" s="91" t="s">
         <v>48</v>
@@ -8487,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:56">
+    <row r="43" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
       <c r="C43" s="167" t="s">
         <v>53</v>
@@ -8649,12 +8655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:56">
+    <row r="44" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
-      <c r="C44" s="239" t="s">
+      <c r="C44" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="240"/>
+      <c r="D44" s="228"/>
       <c r="E44" s="45"/>
       <c r="F44" s="47" t="str">
         <f t="shared" si="45"/>
@@ -8786,12 +8792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:56">
+    <row r="45" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
-      <c r="C45" s="239" t="s">
+      <c r="C45" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="240"/>
+      <c r="D45" s="228"/>
       <c r="E45" s="45">
         <f>SUM(E41:E43)</f>
         <v>0</v>
@@ -8965,38 +8971,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:56">
+    <row r="46" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
-      <c r="C46" s="241"/>
-      <c r="D46" s="242"/>
-      <c r="E46" s="242"/>
-      <c r="F46" s="242"/>
-      <c r="G46" s="242"/>
-      <c r="H46" s="242"/>
-      <c r="I46" s="242"/>
-      <c r="J46" s="242"/>
-      <c r="K46" s="242"/>
-      <c r="L46" s="242"/>
-      <c r="M46" s="242"/>
-      <c r="N46" s="242"/>
-      <c r="O46" s="242"/>
-      <c r="P46" s="242"/>
-      <c r="Q46" s="242"/>
-      <c r="R46" s="242"/>
-      <c r="S46" s="242"/>
-      <c r="T46" s="242"/>
-      <c r="U46" s="242"/>
-      <c r="V46" s="242"/>
-      <c r="W46" s="242"/>
-      <c r="X46" s="242"/>
-      <c r="Y46" s="242"/>
-      <c r="Z46" s="242"/>
-      <c r="AA46" s="242"/>
-      <c r="AB46" s="242"/>
-      <c r="AC46" s="242"/>
-      <c r="AD46" s="242"/>
-      <c r="AE46" s="242"/>
-      <c r="AF46" s="243"/>
+      <c r="C46" s="232"/>
+      <c r="D46" s="233"/>
+      <c r="E46" s="233"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="233"/>
+      <c r="H46" s="233"/>
+      <c r="I46" s="233"/>
+      <c r="J46" s="233"/>
+      <c r="K46" s="233"/>
+      <c r="L46" s="233"/>
+      <c r="M46" s="233"/>
+      <c r="N46" s="233"/>
+      <c r="O46" s="233"/>
+      <c r="P46" s="233"/>
+      <c r="Q46" s="233"/>
+      <c r="R46" s="233"/>
+      <c r="S46" s="233"/>
+      <c r="T46" s="233"/>
+      <c r="U46" s="233"/>
+      <c r="V46" s="233"/>
+      <c r="W46" s="233"/>
+      <c r="X46" s="233"/>
+      <c r="Y46" s="233"/>
+      <c r="Z46" s="233"/>
+      <c r="AA46" s="233"/>
+      <c r="AB46" s="233"/>
+      <c r="AC46" s="233"/>
+      <c r="AD46" s="233"/>
+      <c r="AE46" s="233"/>
+      <c r="AF46" s="234"/>
       <c r="AG46" s="8"/>
       <c r="AP46" s="43"/>
       <c r="AQ46" s="43"/>
@@ -9013,7 +9019,7 @@
       <c r="BC46" s="2"/>
       <c r="BD46" s="2"/>
     </row>
-    <row r="47" spans="2:56">
+    <row r="47" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
       <c r="C47" s="91" t="s">
         <v>47</v>
@@ -9171,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:56">
+    <row r="48" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="C48" s="91" t="s">
         <v>50</v>
@@ -9331,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:56">
+    <row r="49" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
       <c r="C49" s="91" t="s">
         <v>52</v>
@@ -9491,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:56">
+    <row r="50" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="C50" s="91" t="s">
         <v>55</v>
@@ -9639,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:56">
+    <row r="51" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B51" s="7"/>
       <c r="C51" s="167" t="s">
         <v>56</v>
@@ -9789,12 +9795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:56">
+    <row r="52" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B52" s="7"/>
-      <c r="C52" s="239" t="s">
+      <c r="C52" s="227" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="240"/>
+      <c r="D52" s="228"/>
       <c r="E52" s="166"/>
       <c r="F52" s="47" t="str">
         <f t="shared" si="45"/>
@@ -9926,12 +9932,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:56">
+    <row r="53" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B53" s="7"/>
-      <c r="C53" s="239" t="s">
+      <c r="C53" s="227" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="240"/>
+      <c r="D53" s="228"/>
       <c r="E53" s="55">
         <f>SUM(E47:E51)</f>
         <v>0</v>
@@ -10105,41 +10111,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:56" ht="15.75" thickBot="1">
+    <row r="54" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
-      <c r="C54" s="227"/>
-      <c r="D54" s="228"/>
-      <c r="E54" s="228"/>
-      <c r="F54" s="228"/>
-      <c r="G54" s="228"/>
-      <c r="H54" s="228"/>
-      <c r="I54" s="228"/>
-      <c r="J54" s="228"/>
-      <c r="K54" s="228"/>
-      <c r="L54" s="228"/>
-      <c r="M54" s="228"/>
-      <c r="N54" s="228"/>
-      <c r="O54" s="228"/>
-      <c r="P54" s="228"/>
-      <c r="Q54" s="228"/>
-      <c r="R54" s="228"/>
-      <c r="S54" s="228"/>
-      <c r="T54" s="228"/>
-      <c r="U54" s="228"/>
-      <c r="V54" s="228"/>
-      <c r="W54" s="228"/>
-      <c r="X54" s="228"/>
-      <c r="Y54" s="228"/>
-      <c r="Z54" s="228"/>
-      <c r="AA54" s="228"/>
-      <c r="AB54" s="228"/>
-      <c r="AC54" s="228"/>
-      <c r="AD54" s="228"/>
-      <c r="AE54" s="228"/>
-      <c r="AF54" s="229"/>
+      <c r="C54" s="229"/>
+      <c r="D54" s="230"/>
+      <c r="E54" s="230"/>
+      <c r="F54" s="230"/>
+      <c r="G54" s="230"/>
+      <c r="H54" s="230"/>
+      <c r="I54" s="230"/>
+      <c r="J54" s="230"/>
+      <c r="K54" s="230"/>
+      <c r="L54" s="230"/>
+      <c r="M54" s="230"/>
+      <c r="N54" s="230"/>
+      <c r="O54" s="230"/>
+      <c r="P54" s="230"/>
+      <c r="Q54" s="230"/>
+      <c r="R54" s="230"/>
+      <c r="S54" s="230"/>
+      <c r="T54" s="230"/>
+      <c r="U54" s="230"/>
+      <c r="V54" s="230"/>
+      <c r="W54" s="230"/>
+      <c r="X54" s="230"/>
+      <c r="Y54" s="230"/>
+      <c r="Z54" s="230"/>
+      <c r="AA54" s="230"/>
+      <c r="AB54" s="230"/>
+      <c r="AC54" s="230"/>
+      <c r="AD54" s="230"/>
+      <c r="AE54" s="230"/>
+      <c r="AF54" s="231"/>
       <c r="AG54" s="8"/>
     </row>
-    <row r="55" spans="2:56">
+    <row r="55" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B55" s="7"/>
       <c r="C55" s="109" t="s">
         <v>66</v>
@@ -10301,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:56" ht="15" customHeight="1" thickBot="1">
+    <row r="56" spans="2:56" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="107" t="s">
         <v>65</v>
@@ -10480,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:56" ht="15.75" thickBot="1">
+    <row r="57" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="99"/>
       <c r="C57" s="100"/>
       <c r="D57" s="100"/>
@@ -10514,33 +10520,13 @@
       <c r="AF57" s="100"/>
       <c r="AG57" s="102"/>
     </row>
-    <row r="59" spans="2:56">
+    <row r="59" spans="2:56" x14ac:dyDescent="0.2">
       <c r="Q59" s="2" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C28:AD28"/>
-    <mergeCell ref="C40:AF40"/>
-    <mergeCell ref="C46:AF46"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C14:AD14"/>
-    <mergeCell ref="C20:AD20"/>
     <mergeCell ref="C54:AF54"/>
     <mergeCell ref="AP6:AS6"/>
     <mergeCell ref="C3:D3"/>
@@ -10557,6 +10543,26 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="Y32:AB32"/>
     <mergeCell ref="AP32:AV32"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C14:AD14"/>
+    <mergeCell ref="C20:AD20"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C28:AD28"/>
+    <mergeCell ref="C40:AF40"/>
+    <mergeCell ref="C46:AF46"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="AC32:AF32"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:P13 P15:P19 P21:P27">
     <cfRule type="expression" dxfId="20" priority="1">
@@ -10576,14 +10582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
@@ -10599,8 +10605,8 @@
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -10612,22 +10618,22 @@
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="234" t="str">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="235" t="str">
         <f>OMAN!E3</f>
         <v>Retail KPI Dashboard - Oman - Week 39</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -10639,7 +10645,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="211"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -10651,23 +10657,23 @@
       <c r="J5" s="10"/>
       <c r="K5" s="211"/>
     </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="233" t="s">
+      <c r="E6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="233" t="s">
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="235"/>
+      <c r="K6" s="236"/>
     </row>
-    <row r="7" spans="2:11" ht="75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -10693,7 +10699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="88" t="s">
         <v>102</v>
@@ -10730,7 +10736,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="113" t="s">
         <v>103</v>
@@ -10767,7 +10773,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="14.45" customHeight="1">
+    <row r="10" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="109" t="s">
         <v>70</v>
@@ -10802,7 +10808,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15" customHeight="1" thickBot="1">
+    <row r="11" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="99"/>
       <c r="C11" s="107" t="s">
         <v>71</v>
@@ -10851,14 +10857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
@@ -10874,8 +10880,8 @@
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -10887,22 +10893,22 @@
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="234" t="str">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="235" t="str">
         <f>BAHRAIN!E3</f>
         <v>Retail KPI Dashboard - Bahrain - Week 39</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -10914,7 +10920,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="211"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -10926,23 +10932,23 @@
       <c r="J5" s="10"/>
       <c r="K5" s="211"/>
     </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="233" t="s">
+      <c r="E6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="233" t="s">
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="235"/>
+      <c r="K6" s="236"/>
     </row>
-    <row r="7" spans="2:11" ht="79.5" customHeight="1" thickBot="1">
+    <row r="7" spans="2:11" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -10968,7 +10974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="88" t="s">
         <v>106</v>
@@ -11005,7 +11011,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="167"/>
       <c r="D9" s="202"/>
@@ -11038,7 +11044,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="14.45" customHeight="1">
+    <row r="10" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="125" t="s">
         <v>72</v>
@@ -11073,7 +11079,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15" customHeight="1" thickBot="1">
+    <row r="11" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="99"/>
       <c r="C11" s="126" t="s">
         <v>73</v>
@@ -11122,14 +11128,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
@@ -11145,8 +11151,8 @@
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -11158,22 +11164,22 @@
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233" t="str">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="237" t="str">
         <f>QATAR!E3</f>
         <v>Retail KPI Dashboard - Qatar - Week 39</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -11185,7 +11191,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="211"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -11197,23 +11203,23 @@
       <c r="J5" s="10"/>
       <c r="K5" s="211"/>
     </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="233" t="s">
+      <c r="E6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="233" t="s">
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="235"/>
+      <c r="K6" s="236"/>
     </row>
-    <row r="7" spans="2:11" ht="77.25" customHeight="1" thickBot="1">
+    <row r="7" spans="2:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -11239,7 +11245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="129" t="s">
         <v>108</v>
@@ -11276,7 +11282,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="14.45" customHeight="1">
+    <row r="9" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="109" t="s">
         <v>74</v>
@@ -11311,7 +11317,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15" customHeight="1" thickBot="1">
+    <row r="10" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="99"/>
       <c r="C10" s="107" t="s">
         <v>75</v>
@@ -11360,14 +11366,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
@@ -11383,8 +11389,8 @@
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -11396,22 +11402,22 @@
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233" t="str">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="237" t="str">
         <f>KSA!E3</f>
         <v>Retail KPI Dashboard - KSA - Week 39</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -11423,7 +11429,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="211"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -11435,23 +11441,23 @@
       <c r="J5" s="10"/>
       <c r="K5" s="211"/>
     </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="233" t="s">
+      <c r="E6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="233" t="s">
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="235"/>
+      <c r="K6" s="236"/>
     </row>
-    <row r="7" spans="2:11" ht="73.5" customHeight="1" thickBot="1">
+    <row r="7" spans="2:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -11477,7 +11483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="129" t="s">
         <v>128</v>
@@ -11514,7 +11520,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="14.45" customHeight="1">
+    <row r="9" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="109" t="s">
         <v>126</v>
@@ -11549,7 +11555,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15" customHeight="1" thickBot="1">
+    <row r="10" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="99"/>
       <c r="C10" s="107" t="s">
         <v>127</v>
@@ -11598,14 +11604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BN31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
@@ -11669,8 +11675,8 @@
     <col min="71" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:65" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:65" ht="15.75" thickBot="1">
+    <row r="1" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -11704,43 +11710,43 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="6"/>
     </row>
-    <row r="3" spans="2:65" ht="15.75" thickBot="1">
+    <row r="3" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233" t="s">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="237" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="234"/>
-      <c r="U3" s="234"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="234"/>
-      <c r="Y3" s="234"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="235"/>
+      <c r="Z3" s="235"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="235"/>
+      <c r="AC3" s="235"/>
+      <c r="AD3" s="236"/>
       <c r="AE3" s="86"/>
       <c r="AF3" s="86"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="2:65">
+    <row r="4" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -11774,7 +11780,7 @@
       <c r="AF4" s="86"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="2:65" ht="15.75" thickBot="1">
+    <row r="5" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -11808,65 +11814,65 @@
       <c r="AF5" s="86"/>
       <c r="AG5" s="8"/>
     </row>
-    <row r="6" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="236" t="s">
+      <c r="E6" s="241" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="233" t="s">
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="234"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="233" t="s">
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="236"/>
+      <c r="N6" s="237" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="235"/>
+      <c r="P6" s="236"/>
+      <c r="Q6" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="235"/>
-      <c r="S6" s="233" t="s">
+      <c r="R6" s="236"/>
+      <c r="S6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="235"/>
-      <c r="U6" s="233" t="s">
+      <c r="T6" s="236"/>
+      <c r="U6" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="234"/>
-      <c r="W6" s="234"/>
-      <c r="X6" s="234"/>
-      <c r="Y6" s="234"/>
-      <c r="Z6" s="235"/>
-      <c r="AA6" s="233" t="s">
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="235"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="236"/>
+      <c r="AA6" s="237" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="234"/>
-      <c r="AC6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="236"/>
       <c r="AD6" s="11" t="s">
         <v>82</v>
       </c>
       <c r="AE6" s="86"/>
       <c r="AF6" s="86"/>
       <c r="AG6" s="8"/>
-      <c r="AP6" s="230" t="s">
+      <c r="AP6" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="AQ6" s="230"/>
-      <c r="AR6" s="230"/>
-      <c r="AS6" s="230"/>
+      <c r="AQ6" s="238"/>
+      <c r="AR6" s="238"/>
+      <c r="AS6" s="238"/>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
     </row>
-    <row r="7" spans="2:65" ht="67.900000000000006" customHeight="1" thickBot="1">
+    <row r="7" spans="2:65" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -12022,7 +12028,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:65" ht="15.75" thickBot="1">
+    <row r="8" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="88" t="s">
         <v>98</v>
@@ -12203,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:65" ht="15.75" thickBot="1">
+    <row r="9" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="91" t="s">
         <v>99</v>
@@ -12384,7 +12390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:65" ht="15.75" thickBot="1">
+    <row r="10" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="91" t="s">
         <v>100</v>
@@ -12565,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:65" ht="15.75" thickBot="1">
+    <row r="11" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="91"/>
       <c r="D11" s="92"/>
@@ -12743,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:65" ht="15.75" thickBot="1">
+    <row r="12" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="91"/>
       <c r="D12" s="92"/>
@@ -12921,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:65" ht="15.75" thickBot="1">
+    <row r="13" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="91"/>
       <c r="D13" s="92"/>
@@ -13099,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:65" ht="15.75" thickBot="1">
+    <row r="14" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="113"/>
       <c r="D14" s="114"/>
@@ -13277,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:65" ht="14.45" customHeight="1">
+    <row r="15" spans="2:65" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="109" t="s">
         <v>68</v>
@@ -13435,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="16" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="107" t="s">
         <v>69</v>
@@ -13610,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:56" ht="15.75" thickBot="1">
+    <row r="17" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="86"/>
       <c r="D17" s="86"/>
@@ -13644,64 +13650,64 @@
       <c r="AF17" s="86"/>
       <c r="AG17" s="8"/>
     </row>
-    <row r="18" spans="2:56" ht="15" customHeight="1" thickBot="1">
+    <row r="18" spans="2:56" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="86"/>
       <c r="D18" s="86"/>
-      <c r="E18" s="233" t="s">
+      <c r="E18" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="234"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="234" t="s">
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="236"/>
+      <c r="I18" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="234"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="235"/>
-      <c r="M18" s="233" t="s">
+      <c r="J18" s="235"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="236"/>
+      <c r="M18" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="234"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="233" t="s">
+      <c r="N18" s="235"/>
+      <c r="O18" s="235"/>
+      <c r="P18" s="236"/>
+      <c r="Q18" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="R18" s="234"/>
-      <c r="S18" s="234"/>
-      <c r="T18" s="235"/>
-      <c r="U18" s="233" t="s">
+      <c r="R18" s="235"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="236"/>
+      <c r="U18" s="237" t="s">
         <v>130</v>
       </c>
-      <c r="V18" s="234"/>
-      <c r="W18" s="234"/>
-      <c r="X18" s="235"/>
-      <c r="Y18" s="233" t="s">
+      <c r="V18" s="235"/>
+      <c r="W18" s="235"/>
+      <c r="X18" s="236"/>
+      <c r="Y18" s="237" t="s">
         <v>131</v>
       </c>
-      <c r="Z18" s="234"/>
-      <c r="AA18" s="234"/>
-      <c r="AB18" s="235"/>
-      <c r="AC18" s="233" t="s">
+      <c r="Z18" s="235"/>
+      <c r="AA18" s="235"/>
+      <c r="AB18" s="236"/>
+      <c r="AC18" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="AD18" s="234"/>
-      <c r="AE18" s="234"/>
-      <c r="AF18" s="235"/>
+      <c r="AD18" s="235"/>
+      <c r="AE18" s="235"/>
+      <c r="AF18" s="236"/>
       <c r="AG18" s="8"/>
-      <c r="AP18" s="230" t="s">
+      <c r="AP18" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="AQ18" s="230"/>
-      <c r="AR18" s="230"/>
-      <c r="AS18" s="230"/>
-      <c r="AT18" s="230"/>
-      <c r="AU18" s="230"/>
-      <c r="AV18" s="230"/>
+      <c r="AQ18" s="238"/>
+      <c r="AR18" s="238"/>
+      <c r="AS18" s="238"/>
+      <c r="AT18" s="238"/>
+      <c r="AU18" s="238"/>
+      <c r="AV18" s="238"/>
     </row>
-    <row r="19" spans="2:56" ht="73.5" thickBot="1">
+    <row r="19" spans="2:56" ht="73.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="86"/>
       <c r="D19" s="86"/>
@@ -13833,7 +13839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:56">
+    <row r="20" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="88" t="s">
         <v>98</v>
@@ -13997,7 +14003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:56">
+    <row r="21" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="91" t="s">
         <v>99</v>
@@ -14161,7 +14167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:56">
+    <row r="22" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="91" t="s">
         <v>100</v>
@@ -14325,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:56">
+    <row r="23" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="91"/>
       <c r="D23" s="92"/>
@@ -14469,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:56">
+    <row r="24" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="91"/>
       <c r="D24" s="92"/>
@@ -14613,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:56">
+    <row r="25" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="91"/>
       <c r="D25" s="92"/>
@@ -14757,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:56" ht="15.75" thickBot="1">
+    <row r="26" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="113"/>
       <c r="D26" s="114"/>
@@ -14899,7 +14905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:56">
+    <row r="27" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="111" t="s">
         <v>68</v>
@@ -15064,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:56" ht="15.75" thickBot="1">
+    <row r="28" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="107" t="s">
         <v>69</v>
@@ -15243,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:56" ht="15.75" thickBot="1">
+    <row r="29" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="100"/>
@@ -15277,13 +15283,22 @@
       <c r="AF29" s="100"/>
       <c r="AG29" s="102"/>
     </row>
-    <row r="31" spans="2:56">
+    <row r="31" spans="2:56" x14ac:dyDescent="0.2">
       <c r="Q31" s="2" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="AP18:AV18"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:AD3"/>
     <mergeCell ref="E6:H6"/>
@@ -15293,15 +15308,6 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:Z6"/>
     <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="AP18:AV18"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:P14">
     <cfRule type="expression" dxfId="17" priority="1">
@@ -15321,14 +15327,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BO21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AM1" sqref="AM1:BO1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
@@ -15390,8 +15396,8 @@
     <col min="68" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:65" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:65" ht="15.75" thickBot="1">
+    <row r="1" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -15425,43 +15431,43 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="6"/>
     </row>
-    <row r="3" spans="2:65" ht="15.75" thickBot="1">
+    <row r="3" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233" t="s">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="237" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="234"/>
-      <c r="U3" s="234"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="234"/>
-      <c r="Y3" s="234"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="235"/>
+      <c r="Z3" s="235"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="235"/>
+      <c r="AC3" s="235"/>
+      <c r="AD3" s="236"/>
       <c r="AE3" s="86"/>
       <c r="AF3" s="86"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="2:65">
+    <row r="4" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -15495,7 +15501,7 @@
       <c r="AF4" s="86"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="2:65" ht="15.75" thickBot="1">
+    <row r="5" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -15529,65 +15535,65 @@
       <c r="AF5" s="86"/>
       <c r="AG5" s="8"/>
     </row>
-    <row r="6" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="236" t="s">
+      <c r="E6" s="241" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="233" t="s">
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="234"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="233" t="s">
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="236"/>
+      <c r="N6" s="237" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="235"/>
+      <c r="P6" s="236"/>
+      <c r="Q6" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="235"/>
-      <c r="S6" s="233" t="s">
+      <c r="R6" s="236"/>
+      <c r="S6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="235"/>
-      <c r="U6" s="233" t="s">
+      <c r="T6" s="236"/>
+      <c r="U6" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="234"/>
-      <c r="W6" s="234"/>
-      <c r="X6" s="234"/>
-      <c r="Y6" s="234"/>
-      <c r="Z6" s="235"/>
-      <c r="AA6" s="233" t="s">
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="235"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="236"/>
+      <c r="AA6" s="237" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="234"/>
-      <c r="AC6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="236"/>
       <c r="AD6" s="11" t="s">
         <v>82</v>
       </c>
       <c r="AE6" s="86"/>
       <c r="AF6" s="86"/>
       <c r="AG6" s="8"/>
-      <c r="AP6" s="230" t="s">
+      <c r="AP6" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="AQ6" s="230"/>
-      <c r="AR6" s="230"/>
-      <c r="AS6" s="230"/>
+      <c r="AQ6" s="238"/>
+      <c r="AR6" s="238"/>
+      <c r="AS6" s="238"/>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
     </row>
-    <row r="7" spans="2:65" ht="67.900000000000006" customHeight="1" thickBot="1">
+    <row r="7" spans="2:65" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -15743,7 +15749,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:65" ht="15.75" thickBot="1">
+    <row r="8" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="88" t="s">
         <v>102</v>
@@ -15924,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:65" ht="15.75" thickBot="1">
+    <row r="9" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="113" t="s">
         <v>103</v>
@@ -16112,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:65" ht="14.45" customHeight="1">
+    <row r="10" spans="2:65" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="109" t="s">
         <v>70</v>
@@ -16270,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="11" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="107" t="s">
         <v>71</v>
@@ -16445,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:65" ht="15.75" thickBot="1">
+    <row r="12" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="86"/>
       <c r="D12" s="86"/>
@@ -16479,64 +16485,64 @@
       <c r="AF12" s="86"/>
       <c r="AG12" s="8"/>
     </row>
-    <row r="13" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="13" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="86"/>
       <c r="D13" s="86"/>
-      <c r="E13" s="233" t="s">
+      <c r="E13" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="234"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="234" t="s">
+      <c r="F13" s="235"/>
+      <c r="G13" s="235"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="234"/>
-      <c r="K13" s="234"/>
-      <c r="L13" s="235"/>
-      <c r="M13" s="233" t="s">
+      <c r="J13" s="235"/>
+      <c r="K13" s="235"/>
+      <c r="L13" s="236"/>
+      <c r="M13" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="234"/>
-      <c r="O13" s="234"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="233" t="s">
+      <c r="N13" s="235"/>
+      <c r="O13" s="235"/>
+      <c r="P13" s="236"/>
+      <c r="Q13" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="R13" s="234"/>
-      <c r="S13" s="234"/>
-      <c r="T13" s="235"/>
-      <c r="U13" s="233" t="s">
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="236"/>
+      <c r="U13" s="237" t="s">
         <v>130</v>
       </c>
-      <c r="V13" s="234"/>
-      <c r="W13" s="234"/>
-      <c r="X13" s="235"/>
-      <c r="Y13" s="233" t="s">
+      <c r="V13" s="235"/>
+      <c r="W13" s="235"/>
+      <c r="X13" s="236"/>
+      <c r="Y13" s="237" t="s">
         <v>131</v>
       </c>
-      <c r="Z13" s="234"/>
-      <c r="AA13" s="234"/>
-      <c r="AB13" s="235"/>
-      <c r="AC13" s="233" t="s">
+      <c r="Z13" s="235"/>
+      <c r="AA13" s="235"/>
+      <c r="AB13" s="236"/>
+      <c r="AC13" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="234"/>
-      <c r="AE13" s="234"/>
-      <c r="AF13" s="235"/>
+      <c r="AD13" s="235"/>
+      <c r="AE13" s="235"/>
+      <c r="AF13" s="236"/>
       <c r="AG13" s="8"/>
-      <c r="AP13" s="230" t="s">
+      <c r="AP13" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="AQ13" s="230"/>
-      <c r="AR13" s="230"/>
-      <c r="AS13" s="230"/>
-      <c r="AT13" s="230"/>
-      <c r="AU13" s="230"/>
-      <c r="AV13" s="230"/>
+      <c r="AQ13" s="238"/>
+      <c r="AR13" s="238"/>
+      <c r="AS13" s="238"/>
+      <c r="AT13" s="238"/>
+      <c r="AU13" s="238"/>
+      <c r="AV13" s="238"/>
     </row>
-    <row r="14" spans="2:65" ht="73.5" thickBot="1">
+    <row r="14" spans="2:65" ht="73.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="86"/>
       <c r="D14" s="86"/>
@@ -16668,7 +16674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:65">
+    <row r="15" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="88" t="s">
         <v>102</v>
@@ -16828,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:65" ht="15.75" thickBot="1">
+    <row r="16" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="113" t="s">
         <v>103</v>
@@ -16978,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:56">
+    <row r="17" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="111" t="s">
         <v>70</v>
@@ -17135,7 +17141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:56" ht="15.75" thickBot="1">
+    <row r="18" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="107" t="s">
         <v>71</v>
@@ -17314,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:56" ht="15.75" thickBot="1">
+    <row r="19" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="99"/>
       <c r="C19" s="100"/>
       <c r="D19" s="100"/>
@@ -17348,13 +17354,22 @@
       <c r="AF19" s="100"/>
       <c r="AG19" s="102"/>
     </row>
-    <row r="21" spans="2:56">
+    <row r="21" spans="2:56" x14ac:dyDescent="0.2">
       <c r="Q21" s="2" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AP13:AV13"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:AD3"/>
     <mergeCell ref="E6:H6"/>
@@ -17364,15 +17379,6 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:Z6"/>
     <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AP13:AV13"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:P9">
     <cfRule type="expression" dxfId="14" priority="1">
@@ -17392,14 +17398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BN21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
@@ -17462,8 +17468,8 @@
     <col min="75" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:65" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:65" ht="15.75" thickBot="1">
+    <row r="1" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -17497,43 +17503,43 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="6"/>
     </row>
-    <row r="3" spans="2:65" ht="15.75" thickBot="1">
+    <row r="3" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233" t="s">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="237" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="234"/>
-      <c r="U3" s="234"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="234"/>
-      <c r="Y3" s="234"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="235"/>
+      <c r="Z3" s="235"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="235"/>
+      <c r="AC3" s="235"/>
+      <c r="AD3" s="236"/>
       <c r="AE3" s="86"/>
       <c r="AF3" s="86"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="2:65">
+    <row r="4" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -17567,7 +17573,7 @@
       <c r="AF4" s="86"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="2:65" ht="15.75" thickBot="1">
+    <row r="5" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -17601,65 +17607,65 @@
       <c r="AF5" s="86"/>
       <c r="AG5" s="8"/>
     </row>
-    <row r="6" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="236" t="s">
+      <c r="E6" s="241" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="233" t="s">
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="234"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="233" t="s">
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="236"/>
+      <c r="N6" s="237" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="235"/>
+      <c r="P6" s="236"/>
+      <c r="Q6" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="235"/>
-      <c r="S6" s="233" t="s">
+      <c r="R6" s="236"/>
+      <c r="S6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="235"/>
-      <c r="U6" s="233" t="s">
+      <c r="T6" s="236"/>
+      <c r="U6" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="234"/>
-      <c r="W6" s="234"/>
-      <c r="X6" s="234"/>
-      <c r="Y6" s="234"/>
-      <c r="Z6" s="235"/>
-      <c r="AA6" s="233" t="s">
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="235"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="236"/>
+      <c r="AA6" s="237" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="234"/>
-      <c r="AC6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="236"/>
       <c r="AD6" s="11" t="s">
         <v>82</v>
       </c>
       <c r="AE6" s="86"/>
       <c r="AF6" s="86"/>
       <c r="AG6" s="8"/>
-      <c r="AP6" s="230" t="s">
+      <c r="AP6" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="AQ6" s="230"/>
-      <c r="AR6" s="230"/>
-      <c r="AS6" s="230"/>
+      <c r="AQ6" s="238"/>
+      <c r="AR6" s="238"/>
+      <c r="AS6" s="238"/>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
     </row>
-    <row r="7" spans="2:65" ht="67.900000000000006" customHeight="1" thickBot="1">
+    <row r="7" spans="2:65" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -17815,7 +17821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:65">
+    <row r="8" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="88" t="s">
         <v>106</v>
@@ -18003,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:65" ht="15.75" thickBot="1">
+    <row r="9" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="167"/>
       <c r="D9" s="202"/>
@@ -18126,7 +18132,7 @@
       <c r="BK9" s="186"/>
       <c r="BL9" s="186"/>
     </row>
-    <row r="10" spans="2:65" ht="14.45" customHeight="1">
+    <row r="10" spans="2:65" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="125" t="s">
         <v>72</v>
@@ -18281,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="11" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="126" t="s">
         <v>73</v>
@@ -18456,7 +18462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:65" ht="15.75" thickBot="1">
+    <row r="12" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="86"/>
       <c r="D12" s="86"/>
@@ -18490,64 +18496,64 @@
       <c r="AF12" s="86"/>
       <c r="AG12" s="8"/>
     </row>
-    <row r="13" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="13" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="86"/>
       <c r="D13" s="86"/>
-      <c r="E13" s="233" t="s">
+      <c r="E13" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="234"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="234" t="s">
+      <c r="F13" s="235"/>
+      <c r="G13" s="235"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="234"/>
-      <c r="K13" s="234"/>
-      <c r="L13" s="235"/>
-      <c r="M13" s="233" t="s">
+      <c r="J13" s="235"/>
+      <c r="K13" s="235"/>
+      <c r="L13" s="236"/>
+      <c r="M13" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="234"/>
-      <c r="O13" s="234"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="233" t="s">
+      <c r="N13" s="235"/>
+      <c r="O13" s="235"/>
+      <c r="P13" s="236"/>
+      <c r="Q13" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="R13" s="234"/>
-      <c r="S13" s="234"/>
-      <c r="T13" s="235"/>
-      <c r="U13" s="233" t="s">
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="236"/>
+      <c r="U13" s="237" t="s">
         <v>130</v>
       </c>
-      <c r="V13" s="234"/>
-      <c r="W13" s="234"/>
-      <c r="X13" s="235"/>
-      <c r="Y13" s="233" t="s">
+      <c r="V13" s="235"/>
+      <c r="W13" s="235"/>
+      <c r="X13" s="236"/>
+      <c r="Y13" s="237" t="s">
         <v>131</v>
       </c>
-      <c r="Z13" s="234"/>
-      <c r="AA13" s="234"/>
-      <c r="AB13" s="235"/>
-      <c r="AC13" s="233" t="s">
+      <c r="Z13" s="235"/>
+      <c r="AA13" s="235"/>
+      <c r="AB13" s="236"/>
+      <c r="AC13" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="234"/>
-      <c r="AE13" s="234"/>
-      <c r="AF13" s="235"/>
+      <c r="AD13" s="235"/>
+      <c r="AE13" s="235"/>
+      <c r="AF13" s="236"/>
       <c r="AG13" s="8"/>
-      <c r="AP13" s="230" t="s">
+      <c r="AP13" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="AQ13" s="230"/>
-      <c r="AR13" s="230"/>
-      <c r="AS13" s="230"/>
-      <c r="AT13" s="230"/>
-      <c r="AU13" s="230"/>
-      <c r="AV13" s="230"/>
+      <c r="AQ13" s="238"/>
+      <c r="AR13" s="238"/>
+      <c r="AS13" s="238"/>
+      <c r="AT13" s="238"/>
+      <c r="AU13" s="238"/>
+      <c r="AV13" s="238"/>
     </row>
-    <row r="14" spans="2:65" ht="73.5" thickBot="1">
+    <row r="14" spans="2:65" ht="73.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="86"/>
       <c r="D14" s="86"/>
@@ -18679,7 +18685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:65">
+    <row r="15" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="88" t="s">
         <v>106</v>
@@ -18839,7 +18845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:65" ht="15.75" thickBot="1">
+    <row r="16" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="113"/>
       <c r="D16" s="197"/>
@@ -18964,7 +18970,7 @@
       <c r="BC16" s="2"/>
       <c r="BD16" s="2"/>
     </row>
-    <row r="17" spans="2:56">
+    <row r="17" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="111" t="s">
         <v>72</v>
@@ -19123,7 +19129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:56" ht="15.75" thickBot="1">
+    <row r="18" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="107" t="s">
         <v>73</v>
@@ -19302,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:56" ht="15.75" thickBot="1">
+    <row r="19" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="99"/>
       <c r="C19" s="100"/>
       <c r="D19" s="100"/>
@@ -19336,13 +19342,22 @@
       <c r="AF19" s="100"/>
       <c r="AG19" s="102"/>
     </row>
-    <row r="21" spans="2:56">
+    <row r="21" spans="2:56" x14ac:dyDescent="0.2">
       <c r="Q21" s="2" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AP13:AV13"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:AD3"/>
     <mergeCell ref="E6:H6"/>
@@ -19352,15 +19367,6 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:Z6"/>
     <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AP13:AV13"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:P9">
     <cfRule type="expression" dxfId="11" priority="1">
@@ -19380,14 +19386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BN19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
@@ -19450,8 +19456,8 @@
     <col min="71" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:65" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:65" ht="15.75" thickBot="1">
+    <row r="1" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -19485,43 +19491,43 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="6"/>
     </row>
-    <row r="3" spans="2:65" ht="15.75" thickBot="1">
+    <row r="3" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233" t="s">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="237" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="234"/>
-      <c r="U3" s="234"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="234"/>
-      <c r="Y3" s="234"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="235"/>
+      <c r="Z3" s="235"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="235"/>
+      <c r="AC3" s="235"/>
+      <c r="AD3" s="236"/>
       <c r="AE3" s="86"/>
       <c r="AF3" s="86"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="2:65">
+    <row r="4" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -19555,7 +19561,7 @@
       <c r="AF4" s="86"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="2:65" ht="15.75" thickBot="1">
+    <row r="5" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -19589,65 +19595,65 @@
       <c r="AF5" s="86"/>
       <c r="AG5" s="8"/>
     </row>
-    <row r="6" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="236" t="s">
+      <c r="E6" s="241" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="233" t="s">
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="234"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="233" t="s">
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="236"/>
+      <c r="N6" s="237" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="235"/>
+      <c r="P6" s="236"/>
+      <c r="Q6" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="235"/>
-      <c r="S6" s="233" t="s">
+      <c r="R6" s="236"/>
+      <c r="S6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="235"/>
-      <c r="U6" s="233" t="s">
+      <c r="T6" s="236"/>
+      <c r="U6" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="234"/>
-      <c r="W6" s="234"/>
-      <c r="X6" s="234"/>
-      <c r="Y6" s="234"/>
-      <c r="Z6" s="235"/>
-      <c r="AA6" s="233" t="s">
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="235"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="236"/>
+      <c r="AA6" s="237" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="234"/>
-      <c r="AC6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="236"/>
       <c r="AD6" s="11" t="s">
         <v>82</v>
       </c>
       <c r="AE6" s="86"/>
       <c r="AF6" s="86"/>
       <c r="AG6" s="8"/>
-      <c r="AP6" s="230" t="s">
+      <c r="AP6" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="AQ6" s="230"/>
-      <c r="AR6" s="230"/>
-      <c r="AS6" s="230"/>
+      <c r="AQ6" s="238"/>
+      <c r="AR6" s="238"/>
+      <c r="AS6" s="238"/>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
     </row>
-    <row r="7" spans="2:65" ht="67.900000000000006" customHeight="1" thickBot="1">
+    <row r="7" spans="2:65" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -19803,7 +19809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:65" ht="15.75" thickBot="1">
+    <row r="8" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="129" t="s">
         <v>108</v>
@@ -19980,7 +19986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:65" ht="14.45" customHeight="1">
+    <row r="9" spans="2:65" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="109" t="s">
         <v>74</v>
@@ -20129,7 +20135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="10" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="107" t="s">
         <v>75</v>
@@ -20304,7 +20310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:65" ht="15.75" thickBot="1">
+    <row r="11" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="86"/>
       <c r="D11" s="86"/>
@@ -20338,64 +20344,64 @@
       <c r="AF11" s="86"/>
       <c r="AG11" s="8"/>
     </row>
-    <row r="12" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="86"/>
       <c r="D12" s="86"/>
-      <c r="E12" s="233" t="s">
+      <c r="E12" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="234"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="234" t="s">
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="233" t="s">
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
+      <c r="M12" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="234"/>
-      <c r="O12" s="234"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="233" t="s">
+      <c r="N12" s="235"/>
+      <c r="O12" s="235"/>
+      <c r="P12" s="236"/>
+      <c r="Q12" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="234"/>
-      <c r="S12" s="234"/>
-      <c r="T12" s="235"/>
-      <c r="U12" s="233" t="s">
+      <c r="R12" s="235"/>
+      <c r="S12" s="235"/>
+      <c r="T12" s="236"/>
+      <c r="U12" s="237" t="s">
         <v>130</v>
       </c>
-      <c r="V12" s="234"/>
-      <c r="W12" s="234"/>
-      <c r="X12" s="235"/>
-      <c r="Y12" s="233" t="s">
+      <c r="V12" s="235"/>
+      <c r="W12" s="235"/>
+      <c r="X12" s="236"/>
+      <c r="Y12" s="237" t="s">
         <v>131</v>
       </c>
-      <c r="Z12" s="234"/>
-      <c r="AA12" s="234"/>
-      <c r="AB12" s="235"/>
-      <c r="AC12" s="233" t="s">
+      <c r="Z12" s="235"/>
+      <c r="AA12" s="235"/>
+      <c r="AB12" s="236"/>
+      <c r="AC12" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="AD12" s="234"/>
-      <c r="AE12" s="234"/>
-      <c r="AF12" s="235"/>
+      <c r="AD12" s="235"/>
+      <c r="AE12" s="235"/>
+      <c r="AF12" s="236"/>
       <c r="AG12" s="8"/>
-      <c r="AP12" s="230" t="s">
+      <c r="AP12" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="AQ12" s="230"/>
-      <c r="AR12" s="230"/>
-      <c r="AS12" s="230"/>
-      <c r="AT12" s="230"/>
-      <c r="AU12" s="230"/>
-      <c r="AV12" s="230"/>
+      <c r="AQ12" s="238"/>
+      <c r="AR12" s="238"/>
+      <c r="AS12" s="238"/>
+      <c r="AT12" s="238"/>
+      <c r="AU12" s="238"/>
+      <c r="AV12" s="238"/>
     </row>
-    <row r="13" spans="2:65" ht="73.5" thickBot="1">
+    <row r="13" spans="2:65" ht="73.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="86"/>
       <c r="D13" s="86"/>
@@ -20527,7 +20533,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:65" ht="15.75" thickBot="1">
+    <row r="14" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="88" t="s">
         <v>108</v>
@@ -20677,7 +20683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:65">
+    <row r="15" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="127" t="s">
         <v>74</v>
@@ -20842,7 +20848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:65" ht="15.75" thickBot="1">
+    <row r="16" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="128" t="s">
         <v>75</v>
@@ -21021,7 +21027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:33" ht="15.75" thickBot="1">
+    <row r="17" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="99"/>
       <c r="C17" s="100"/>
       <c r="D17" s="100"/>
@@ -21055,13 +21061,22 @@
       <c r="AF17" s="100"/>
       <c r="AG17" s="102"/>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
       <c r="Q19" s="2" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AP12:AV12"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:AD3"/>
     <mergeCell ref="E6:H6"/>
@@ -21071,15 +21086,6 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:Z6"/>
     <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AP12:AV12"/>
   </mergeCells>
   <conditionalFormatting sqref="P8">
     <cfRule type="expression" dxfId="8" priority="1">
@@ -21099,14 +21105,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BN19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
@@ -21170,8 +21176,8 @@
     <col min="71" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:65" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:65" ht="15.75" thickBot="1">
+    <row r="1" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -21205,43 +21211,43 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="6"/>
     </row>
-    <row r="3" spans="2:65" ht="15.75" thickBot="1">
+    <row r="3" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233" t="s">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="237" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="234"/>
-      <c r="U3" s="234"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="234"/>
-      <c r="Y3" s="234"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="235"/>
+      <c r="Z3" s="235"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="235"/>
+      <c r="AC3" s="235"/>
+      <c r="AD3" s="236"/>
       <c r="AE3" s="86"/>
       <c r="AF3" s="86"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="2:65">
+    <row r="4" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -21275,7 +21281,7 @@
       <c r="AF4" s="86"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="2:65" ht="15.75" thickBot="1">
+    <row r="5" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -21309,65 +21315,65 @@
       <c r="AF5" s="86"/>
       <c r="AG5" s="8"/>
     </row>
-    <row r="6" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="236" t="s">
+      <c r="E6" s="241" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="233" t="s">
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="234"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="233" t="s">
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="236"/>
+      <c r="N6" s="237" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="235"/>
+      <c r="P6" s="236"/>
+      <c r="Q6" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="235"/>
-      <c r="S6" s="233" t="s">
+      <c r="R6" s="236"/>
+      <c r="S6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="235"/>
-      <c r="U6" s="233" t="s">
+      <c r="T6" s="236"/>
+      <c r="U6" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="234"/>
-      <c r="W6" s="234"/>
-      <c r="X6" s="234"/>
-      <c r="Y6" s="234"/>
-      <c r="Z6" s="235"/>
-      <c r="AA6" s="233" t="s">
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="235"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="236"/>
+      <c r="AA6" s="237" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="234"/>
-      <c r="AC6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="236"/>
       <c r="AD6" s="11" t="s">
         <v>82</v>
       </c>
       <c r="AE6" s="86"/>
       <c r="AF6" s="86"/>
       <c r="AG6" s="8"/>
-      <c r="AP6" s="230" t="s">
+      <c r="AP6" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="AQ6" s="230"/>
-      <c r="AR6" s="230"/>
-      <c r="AS6" s="230"/>
+      <c r="AQ6" s="238"/>
+      <c r="AR6" s="238"/>
+      <c r="AS6" s="238"/>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
     </row>
-    <row r="7" spans="2:65" ht="67.900000000000006" customHeight="1" thickBot="1">
+    <row r="7" spans="2:65" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -21523,7 +21529,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:65" ht="15.75" thickBot="1">
+    <row r="8" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="129" t="s">
         <v>128</v>
@@ -21698,7 +21704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:65" ht="14.45" customHeight="1">
+    <row r="9" spans="2:65" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="109" t="s">
         <v>126</v>
@@ -21847,7 +21853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="10" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="107" t="s">
         <v>127</v>
@@ -22022,7 +22028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:65" ht="15.75" thickBot="1">
+    <row r="11" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="86"/>
       <c r="D11" s="86"/>
@@ -22056,64 +22062,64 @@
       <c r="AF11" s="86"/>
       <c r="AG11" s="8"/>
     </row>
-    <row r="12" spans="2:65" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="86"/>
       <c r="D12" s="86"/>
-      <c r="E12" s="233" t="s">
+      <c r="E12" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="234"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="234" t="s">
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="233" t="s">
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
+      <c r="M12" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="234"/>
-      <c r="O12" s="234"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="233" t="s">
+      <c r="N12" s="235"/>
+      <c r="O12" s="235"/>
+      <c r="P12" s="236"/>
+      <c r="Q12" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="234"/>
-      <c r="S12" s="234"/>
-      <c r="T12" s="235"/>
-      <c r="U12" s="233" t="s">
+      <c r="R12" s="235"/>
+      <c r="S12" s="235"/>
+      <c r="T12" s="236"/>
+      <c r="U12" s="237" t="s">
         <v>130</v>
       </c>
-      <c r="V12" s="234"/>
-      <c r="W12" s="234"/>
-      <c r="X12" s="235"/>
-      <c r="Y12" s="233" t="s">
+      <c r="V12" s="235"/>
+      <c r="W12" s="235"/>
+      <c r="X12" s="236"/>
+      <c r="Y12" s="237" t="s">
         <v>131</v>
       </c>
-      <c r="Z12" s="234"/>
-      <c r="AA12" s="234"/>
-      <c r="AB12" s="235"/>
-      <c r="AC12" s="233" t="s">
+      <c r="Z12" s="235"/>
+      <c r="AA12" s="235"/>
+      <c r="AB12" s="236"/>
+      <c r="AC12" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="AD12" s="234"/>
-      <c r="AE12" s="234"/>
-      <c r="AF12" s="235"/>
+      <c r="AD12" s="235"/>
+      <c r="AE12" s="235"/>
+      <c r="AF12" s="236"/>
       <c r="AG12" s="8"/>
-      <c r="AP12" s="230" t="s">
+      <c r="AP12" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="AQ12" s="230"/>
-      <c r="AR12" s="230"/>
-      <c r="AS12" s="230"/>
-      <c r="AT12" s="230"/>
-      <c r="AU12" s="230"/>
-      <c r="AV12" s="230"/>
+      <c r="AQ12" s="238"/>
+      <c r="AR12" s="238"/>
+      <c r="AS12" s="238"/>
+      <c r="AT12" s="238"/>
+      <c r="AU12" s="238"/>
+      <c r="AV12" s="238"/>
     </row>
-    <row r="13" spans="2:65" ht="73.5" thickBot="1">
+    <row r="13" spans="2:65" ht="73.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="86"/>
       <c r="D13" s="86"/>
@@ -22245,7 +22251,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:65" ht="15.75" thickBot="1">
+    <row r="14" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="88" t="s">
         <v>128</v>
@@ -22393,7 +22399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:65">
+    <row r="15" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="127" t="s">
         <v>126</v>
@@ -22558,7 +22564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:65" ht="15.75" thickBot="1">
+    <row r="16" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="128" t="s">
         <v>127</v>
@@ -22737,7 +22743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:33" ht="15.75" thickBot="1">
+    <row r="17" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="99"/>
       <c r="C17" s="100"/>
       <c r="D17" s="100"/>
@@ -22771,13 +22777,22 @@
       <c r="AF17" s="100"/>
       <c r="AG17" s="102"/>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
       <c r="Q19" s="2" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AP12:AV12"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:AD3"/>
     <mergeCell ref="E6:H6"/>
@@ -22787,15 +22802,6 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:Z6"/>
     <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AP12:AV12"/>
   </mergeCells>
   <conditionalFormatting sqref="P8">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -22815,14 +22821,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BN41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
@@ -22884,8 +22890,8 @@
     <col min="74" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:65" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:65" ht="15.75" thickBot="1">
+    <row r="1" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -22919,43 +22925,43 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="6"/>
     </row>
-    <row r="3" spans="2:65" ht="15.75" thickBot="1">
+    <row r="3" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233" t="s">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="237" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="234"/>
-      <c r="U3" s="234"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="234"/>
-      <c r="Y3" s="234"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="235"/>
+      <c r="Z3" s="235"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="235"/>
+      <c r="AC3" s="235"/>
+      <c r="AD3" s="236"/>
       <c r="AE3" s="86"/>
       <c r="AF3" s="86"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="2:65">
+    <row r="4" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -22989,7 +22995,7 @@
       <c r="AF4" s="86"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="2:65" ht="15.75" thickBot="1">
+    <row r="5" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -23023,65 +23029,65 @@
       <c r="AF5" s="86"/>
       <c r="AG5" s="8"/>
     </row>
-    <row r="6" spans="2:65" ht="15.75" thickBot="1">
+    <row r="6" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="236" t="s">
+      <c r="E6" s="241" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="233" t="s">
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="234"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="233" t="s">
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="236"/>
+      <c r="N6" s="237" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="235"/>
+      <c r="P6" s="236"/>
+      <c r="Q6" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="235"/>
-      <c r="S6" s="233" t="s">
+      <c r="R6" s="236"/>
+      <c r="S6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="235"/>
-      <c r="U6" s="233" t="s">
+      <c r="T6" s="236"/>
+      <c r="U6" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="234"/>
-      <c r="W6" s="234"/>
-      <c r="X6" s="234"/>
-      <c r="Y6" s="234"/>
-      <c r="Z6" s="235"/>
-      <c r="AA6" s="233" t="s">
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="235"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="236"/>
+      <c r="AA6" s="237" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="234"/>
-      <c r="AC6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="236"/>
       <c r="AD6" s="11" t="s">
         <v>82</v>
       </c>
       <c r="AE6" s="86"/>
       <c r="AF6" s="86"/>
       <c r="AG6" s="8"/>
-      <c r="AP6" s="230" t="s">
+      <c r="AP6" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="AQ6" s="230"/>
-      <c r="AR6" s="230"/>
-      <c r="AS6" s="230"/>
+      <c r="AQ6" s="238"/>
+      <c r="AR6" s="238"/>
+      <c r="AS6" s="238"/>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
     </row>
-    <row r="7" spans="2:65" ht="97.5" thickBot="1">
+    <row r="7" spans="2:65" ht="97.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -23237,7 +23243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:65" ht="15.75" thickBot="1">
+    <row r="8" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="88" t="s">
         <v>68</v>
@@ -23410,7 +23416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:65" ht="15.75" thickBot="1">
+    <row r="9" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="91" t="s">
         <v>69</v>
@@ -23583,7 +23589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:65" ht="15.75" thickBot="1">
+    <row r="10" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="91" t="s">
         <v>66</v>
@@ -23756,7 +23762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:65" ht="15.75" thickBot="1">
+    <row r="11" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="91" t="s">
         <v>65</v>
@@ -23929,7 +23935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:65" ht="15.75" thickBot="1">
+    <row r="12" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="91" t="s">
         <v>70</v>
@@ -24102,7 +24108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:65" ht="15.75" thickBot="1">
+    <row r="13" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="91" t="s">
         <v>71</v>
@@ -24284,7 +24290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:65" ht="15.75" thickBot="1">
+    <row r="14" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="91" t="s">
         <v>72</v>
@@ -24466,7 +24472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:65" ht="15.75" thickBot="1">
+    <row r="15" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="91" t="s">
         <v>73</v>
@@ -24648,7 +24654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:65" ht="15.75" thickBot="1">
+    <row r="16" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="91" t="s">
         <v>74</v>
@@ -24830,7 +24836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:65" ht="15.75" thickBot="1">
+    <row r="17" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="91" t="s">
         <v>129</v>
@@ -25012,7 +25018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:65" ht="15.75" thickBot="1">
+    <row r="18" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="91" t="s">
         <v>126</v>
@@ -25194,7 +25200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:65" ht="15.75" thickBot="1">
+    <row r="19" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="113" t="s">
         <v>127</v>
@@ -25376,7 +25382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:65">
+    <row r="20" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="111" t="s">
         <v>93</v>
@@ -25573,7 +25579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:65" ht="15.75" thickBot="1">
+    <row r="21" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="107" t="s">
         <v>77</v>
@@ -25770,7 +25776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:65" ht="15.75" thickBot="1">
+    <row r="22" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="86"/>
       <c r="D22" s="86"/>
@@ -25804,64 +25810,64 @@
       <c r="AF22" s="86"/>
       <c r="AG22" s="8"/>
     </row>
-    <row r="23" spans="2:65" ht="15.75" thickBot="1">
+    <row r="23" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="86"/>
       <c r="D23" s="86"/>
-      <c r="E23" s="233" t="s">
+      <c r="E23" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="234"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="234" t="s">
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="236"/>
+      <c r="I23" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="234"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="235"/>
-      <c r="M23" s="233" t="s">
+      <c r="J23" s="235"/>
+      <c r="K23" s="235"/>
+      <c r="L23" s="236"/>
+      <c r="M23" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="234"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="233" t="s">
+      <c r="N23" s="235"/>
+      <c r="O23" s="235"/>
+      <c r="P23" s="236"/>
+      <c r="Q23" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="R23" s="234"/>
-      <c r="S23" s="234"/>
-      <c r="T23" s="235"/>
-      <c r="U23" s="233" t="s">
+      <c r="R23" s="235"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="236"/>
+      <c r="U23" s="237" t="s">
         <v>130</v>
       </c>
-      <c r="V23" s="234"/>
-      <c r="W23" s="234"/>
-      <c r="X23" s="235"/>
-      <c r="Y23" s="233" t="s">
+      <c r="V23" s="235"/>
+      <c r="W23" s="235"/>
+      <c r="X23" s="236"/>
+      <c r="Y23" s="237" t="s">
         <v>131</v>
       </c>
-      <c r="Z23" s="234"/>
-      <c r="AA23" s="234"/>
-      <c r="AB23" s="235"/>
-      <c r="AC23" s="233" t="s">
+      <c r="Z23" s="235"/>
+      <c r="AA23" s="235"/>
+      <c r="AB23" s="236"/>
+      <c r="AC23" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="AD23" s="234"/>
-      <c r="AE23" s="234"/>
-      <c r="AF23" s="235"/>
+      <c r="AD23" s="235"/>
+      <c r="AE23" s="235"/>
+      <c r="AF23" s="236"/>
       <c r="AG23" s="8"/>
-      <c r="AP23" s="230" t="s">
+      <c r="AP23" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="AQ23" s="230"/>
-      <c r="AR23" s="230"/>
-      <c r="AS23" s="230"/>
-      <c r="AT23" s="230"/>
-      <c r="AU23" s="230"/>
-      <c r="AV23" s="230"/>
+      <c r="AQ23" s="238"/>
+      <c r="AR23" s="238"/>
+      <c r="AS23" s="238"/>
+      <c r="AT23" s="238"/>
+      <c r="AU23" s="238"/>
+      <c r="AV23" s="238"/>
     </row>
-    <row r="24" spans="2:65" ht="73.5" thickBot="1">
+    <row r="24" spans="2:65" ht="73.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="86"/>
       <c r="D24" s="86"/>
@@ -25993,7 +25999,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:65">
+    <row r="25" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="88" t="s">
         <v>68</v>
@@ -26155,7 +26161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:65">
+    <row r="26" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="91" t="s">
         <v>69</v>
@@ -26317,7 +26323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:65">
+    <row r="27" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="91" t="s">
         <v>66</v>
@@ -26479,7 +26485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:65">
+    <row r="28" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="91" t="s">
         <v>65</v>
@@ -26641,7 +26647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:65">
+    <row r="29" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="91" t="s">
         <v>70</v>
@@ -26803,7 +26809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:65">
+    <row r="30" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="91" t="s">
         <v>71</v>
@@ -26965,7 +26971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:65">
+    <row r="31" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="C31" s="91" t="s">
         <v>72</v>
@@ -27127,7 +27133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:65">
+    <row r="32" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="C32" s="91" t="s">
         <v>73</v>
@@ -27289,7 +27295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:56">
+    <row r="33" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
       <c r="C33" s="91" t="s">
         <v>74</v>
@@ -27451,7 +27457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:56">
+    <row r="34" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
       <c r="C34" s="91" t="s">
         <v>75</v>
@@ -27613,7 +27619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:56">
+    <row r="35" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
       <c r="C35" s="91" t="s">
         <v>126</v>
@@ -27775,7 +27781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:56" ht="15.75" thickBot="1">
+    <row r="36" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="113" t="s">
         <v>127</v>
@@ -27937,7 +27943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:56">
+    <row r="37" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
       <c r="C37" s="111" t="s">
         <v>93</v>
@@ -28116,7 +28122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:56" ht="15.75" thickBot="1">
+    <row r="38" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="107" t="s">
         <v>77</v>
@@ -28295,7 +28301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:56" ht="15.75" thickBot="1">
+    <row r="39" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="99"/>
       <c r="C39" s="135" t="s">
         <v>94</v>
@@ -28331,13 +28337,22 @@
       <c r="AF39" s="100"/>
       <c r="AG39" s="102"/>
     </row>
-    <row r="41" spans="2:56">
+    <row r="41" spans="2:56" x14ac:dyDescent="0.2">
       <c r="Q41" s="2" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AP23:AV23"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:AD3"/>
     <mergeCell ref="E6:H6"/>
@@ -28347,15 +28362,6 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:Z6"/>
     <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AP23:AV23"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:P19">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -28375,14 +28381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
@@ -28399,8 +28405,8 @@
     <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -28413,23 +28419,23 @@
       <c r="K2" s="4"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233" t="str">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="237" t="str">
         <f>UAE!E3</f>
         <v>Retail KPI Dashboard - UAE - Week 39</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -28442,7 +28448,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1">
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -28455,24 +28461,24 @@
       <c r="K5" s="9"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="2:12" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="233" t="s">
+      <c r="E6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="233" t="s">
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="235"/>
+      <c r="K6" s="236"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="2:12" ht="75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -28499,7 +28505,7 @@
       </c>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="88" t="s">
         <v>45</v>
@@ -28537,7 +28543,7 @@
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="91" t="s">
         <v>49</v>
@@ -28575,7 +28581,7 @@
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="91" t="s">
         <v>51</v>
@@ -28613,7 +28619,7 @@
       </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="91" t="s">
         <v>54</v>
@@ -28651,12 +28657,12 @@
       </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
-      <c r="C12" s="239" t="s">
+      <c r="C12" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="240"/>
+      <c r="D12" s="228"/>
       <c r="E12" s="178">
         <f>UAE!I12</f>
         <v>0</v>
@@ -28687,12 +28693,12 @@
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
-      <c r="C13" s="239" t="s">
+      <c r="C13" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="240"/>
+      <c r="D13" s="228"/>
       <c r="E13" s="178">
         <f>UAE!I13</f>
         <v>0</v>
@@ -28723,20 +28729,20 @@
       </c>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="242"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="242"/>
-      <c r="H14" s="242"/>
-      <c r="I14" s="242"/>
-      <c r="J14" s="242"/>
-      <c r="K14" s="242"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="233"/>
+      <c r="G14" s="233"/>
+      <c r="H14" s="233"/>
+      <c r="I14" s="233"/>
+      <c r="J14" s="233"/>
+      <c r="K14" s="233"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="172" t="s">
         <v>46</v>
@@ -28774,7 +28780,7 @@
       </c>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="91" t="s">
         <v>48</v>
@@ -28812,7 +28818,7 @@
       </c>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="167" t="s">
         <v>53</v>
@@ -28850,12 +28856,12 @@
       </c>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="239" t="s">
+      <c r="C18" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="240"/>
+      <c r="D18" s="228"/>
       <c r="E18" s="44">
         <f>UAE!I18</f>
         <v>0</v>
@@ -28886,12 +28892,12 @@
       </c>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
-      <c r="C19" s="239" t="s">
+      <c r="C19" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="240"/>
+      <c r="D19" s="228"/>
       <c r="E19" s="44">
         <f>UAE!I19</f>
         <v>0</v>
@@ -28922,20 +28928,20 @@
       </c>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="242"/>
-      <c r="H20" s="242"/>
-      <c r="I20" s="242"/>
-      <c r="J20" s="242"/>
-      <c r="K20" s="242"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="233"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="91" t="s">
         <v>50</v>
@@ -28973,7 +28979,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="91" t="s">
         <v>52</v>
@@ -29011,7 +29017,7 @@
       </c>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="91" t="s">
         <v>55</v>
@@ -29049,7 +29055,7 @@
       </c>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="91" t="s">
         <v>56</v>
@@ -29087,7 +29093,7 @@
       </c>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="167"/>
       <c r="D25" s="168"/>
@@ -29109,12 +29115,12 @@
       </c>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="239" t="s">
+      <c r="C26" s="227" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="240"/>
+      <c r="D26" s="228"/>
       <c r="E26" s="44">
         <f>UAE!I26</f>
         <v>0</v>
@@ -29145,12 +29151,12 @@
       </c>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
-      <c r="C27" s="239" t="s">
+      <c r="C27" s="227" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="240"/>
+      <c r="D27" s="228"/>
       <c r="E27" s="44">
         <f>UAE!I27</f>
         <v>0</v>
@@ -29181,10 +29187,10 @@
       </c>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" thickBot="1">
+    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="228"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="230"/>
       <c r="E28" s="244"/>
       <c r="F28" s="244"/>
       <c r="G28" s="244"/>
@@ -29194,7 +29200,7 @@
       <c r="K28" s="244"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" ht="14.45" customHeight="1">
+    <row r="29" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="109" t="s">
         <v>66</v>
@@ -29230,7 +29236,7 @@
       </c>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="15" customHeight="1" thickBot="1">
+    <row r="30" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="99"/>
       <c r="C30" s="107" t="s">
         <v>65</v>
@@ -29268,12 +29274,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C28:K28"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="C18:D18"/>
@@ -29281,6 +29281,12 @@
     <mergeCell ref="C20:K20"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -29289,14 +29295,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
@@ -29312,8 +29318,8 @@
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -29325,22 +29331,22 @@
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="233" t="str">
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="237" t="str">
         <f>JORDAN!E3</f>
         <v>Retail KPI Dashboard - Jordan - Week 39</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -29352,7 +29358,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="211"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -29364,23 +29370,23 @@
       <c r="J5" s="10"/>
       <c r="K5" s="211"/>
     </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="233" t="s">
+      <c r="E6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="233" t="s">
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="236"/>
+      <c r="J6" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="235"/>
+      <c r="K6" s="236"/>
     </row>
-    <row r="7" spans="2:11" ht="75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -29406,7 +29412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="212"/>
       <c r="C8" s="88" t="s">
         <v>98</v>
@@ -29443,7 +29449,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="212"/>
       <c r="C9" s="91" t="s">
         <v>99</v>
@@ -29480,7 +29486,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="212"/>
       <c r="C10" s="91" t="s">
         <v>100</v>
@@ -29517,7 +29523,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="212"/>
       <c r="C11" s="91" t="s">
         <v>132</v>
@@ -29554,7 +29560,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="212"/>
       <c r="C12" s="91" t="s">
         <v>133</v>
@@ -29591,7 +29597,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="212"/>
       <c r="C13" s="91"/>
       <c r="D13" s="175"/>
@@ -29619,7 +29625,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1">
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="212"/>
       <c r="C14" s="113"/>
       <c r="D14" s="215"/>
@@ -29647,7 +29653,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="14.45" customHeight="1">
+    <row r="15" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="212"/>
       <c r="C15" s="109" t="s">
         <v>68</v>
@@ -29682,7 +29688,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="213"/>
       <c r="C16" s="107" t="s">
         <v>69</v>
